--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_12 2.类和对象(2).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_12 2.类和对象(2).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,13 +16,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +57,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +147,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +182,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +358,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U29" sqref="U28:U29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_12 2.类和对象(2).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_12 2.类和对象(2).xlsx
@@ -13,6 +13,91 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>首先排除A，因为空指针的访问并不会编译报错，空指针野指针之类的并不是语法错误，编不会编译报错的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么会不会运行崩溃呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来好像是对A* p空指针进行了解引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先要明确一点，对象内是不会存成员函数的指针的，所以Print实际上并不在A* p这个对象的空内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print内也不存在任何和A类相关的成员变量，那么对Print的调用，从汇编的角度来看，实际上是call了这个函数（这个函数在其他的地方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里不崩溃可能是因为新版的编译器做了优化处理，但是注意看退出代码，它依然是一个问题代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除E，因为Sizeof对象，并没有这个this指针的空间大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再排除D，因为实际上并不是const修饰的变量都是常量，严格来说它应该叫常变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到下面代码中i j str， i j在一个区域挨着，而str才是真正在常量区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时const修饰的常变量实际上是能通过强转修改的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再排除B堆，堆是动态开辟的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那放在C静态区，合理吗？显然不，因为this指针是不断变化的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而静态区是存放静态数据和全局数据的，它的生命周期是全局的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this你不断变化，并且并不是全局起作用，所以显然不能放在静态区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以最终结果是A栈，可以视this作一个形参，本质是一个临时参数，局部变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：有些编译器会将this指针放在寄存器中，VS是通过ecx寄存器传递this的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要频繁访问的数据，通过寄存器效率更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照储存体系来划分，寄存器的访问效率是最高的，其次是缓存，再然后才是内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而如栈类似的结构属于内存，它的访问效率是远低于寄存器的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前四个很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,6 +155,619 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>188009</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>617764</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>141549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="873809" y="428624"/>
+          <a:ext cx="7973555" cy="7771075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="7239000"/>
+          <a:ext cx="3371850" cy="315195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>8648</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="5934075"/>
+          <a:ext cx="7019048" cy="1685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608711</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="8286750"/>
+          <a:ext cx="7114286" cy="2866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>75269</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="8477250"/>
+          <a:ext cx="7447619" cy="2352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75244</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="11325225"/>
+          <a:ext cx="7647619" cy="2933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>656350</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>113289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="10887075"/>
+          <a:ext cx="7000000" cy="8085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475202</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>18450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="19221450"/>
+          <a:ext cx="8380952" cy="4800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656593</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>133212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="24574500"/>
+          <a:ext cx="5057143" cy="1104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>37400</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>9123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13639800" y="25593675"/>
+          <a:ext cx="5600000" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371189</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>47564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="26822400"/>
+          <a:ext cx="2285714" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>137354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="30241875"/>
+          <a:ext cx="6667500" cy="2985329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>109159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="34470975"/>
+          <a:ext cx="6029325" cy="613984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199336</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>66150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="35128200"/>
+          <a:ext cx="5514286" cy="4200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560957</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>75858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="40205025"/>
+          <a:ext cx="8142857" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>464983</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>152095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="43491150"/>
+          <a:ext cx="13933333" cy="2438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,17 +1057,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F22:Q242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U28:U29"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="T252" sqref="T252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="M161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="M163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="M165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="M167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="G172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="F174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="F175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q242" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
